--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3350567.806858826</v>
+        <v>3426097.476523633</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -659,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>204.434407769772</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>128.9001284632685</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481162</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,10 +715,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554025</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -753,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250816</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229327</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>114.9037140121388</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>4.656611629716229</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>105.0314420927888</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,10 +910,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>144.8266450448612</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>230.2634979541059</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>218.7963048115085</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>251.1921650317972</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1184,10 +1186,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>40.25883851270402</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>206.3517689015294</v>
+        <v>144.8086284801606</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1423,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>73.21532344290755</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1579,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>269.3712663515785</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896906</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274073</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,13 +1660,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.26446238800023</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>197.1029817676907</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>53.97176941077494</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,16 +2061,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>144.4797853959761</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>95.21726345495343</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>113.1463691023991</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>26.27694844301186</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>107.2359889779012</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>104.4356141147664</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>17.13387053928689</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>133.9620172021099</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>146.185469167092</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3083,7 +3085,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3199,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>32.62167232804359</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>53.98383637884853</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3424,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>29.30655540895098</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3484,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>216.1182517556566</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>98.14361023919679</v>
+        <v>99.05798791650201</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3676,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3724,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.876045741712</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274081</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>61.71642360736897</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3952,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>114.4449296640509</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710068</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -4186,16 +4188,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>72.2213229097564</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>174.0251000329459</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>1130.934501327945</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>761.971984387533</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982757</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>936.2491605982757</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>929.3036598490722</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>511.3398517472591</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>184.1451317832619</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733133</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224085</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642691</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791254</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862888</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.30824683495</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.30824683495</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.30824683495</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1894.539591564836</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1521.073833303756</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1130.934501327945</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170848</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359578</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747065</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>789.063382757265</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417903</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517454</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152627</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430049</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073965</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196744</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167584</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935841</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.32511120764</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002107</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237153</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351.9927747426009</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9927747426009</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D4" t="n">
-        <v>235.9284171545819</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545819</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600568</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406182</v>
+        <v>409.2948950230962</v>
       </c>
       <c r="X4" t="n">
-        <v>351.9927747426009</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="Y4" t="n">
-        <v>351.9927747426009</v>
+        <v>404.5912469122717</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>953.9071733620844</v>
+        <v>1129.234822142136</v>
       </c>
       <c r="C5" t="n">
-        <v>584.9446564216728</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>2242.069075737452</v>
       </c>
       <c r="W5" t="n">
-        <v>1717.512263598976</v>
+        <v>1889.300420467338</v>
       </c>
       <c r="X5" t="n">
-        <v>1344.046505337896</v>
+        <v>1515.834662206258</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9071733620844</v>
+        <v>1515.834662206258</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4640,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931987</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>477.7056965635832</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>477.7056965635832</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>249.7161456655658</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1703.566937845283</v>
+        <v>1271.835978902614</v>
       </c>
       <c r="C8" t="n">
-        <v>1703.566937845283</v>
+        <v>1271.835978902614</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>1271.835978902614</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>886.0477263043695</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>475.0618215147619</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>461.1384174533528</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
         <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2480.306109885217</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U8" t="n">
-        <v>2480.306109885217</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2480.306109885217</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W8" t="n">
-        <v>2480.306109885217</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X8" t="n">
-        <v>2480.306109885217</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="Y8" t="n">
-        <v>2090.166777909405</v>
+        <v>1658.435818966735</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>490.2759348564911</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="U10" t="n">
-        <v>490.2759348564911</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="V10" t="n">
-        <v>235.5914466506042</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="W10" t="n">
-        <v>235.5914466506042</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>552.4407231609042</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>552.4407231609042</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5072,19 +5074,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>171.1719636248389</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5227,22 +5229,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>909.3712637033469</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W13" t="n">
-        <v>619.9540936663864</v>
+        <v>861.0644906799231</v>
       </c>
       <c r="X13" t="n">
-        <v>391.964542768369</v>
+        <v>633.0749397819058</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.1719636248389</v>
+        <v>412.2823606383756</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,25 +5278,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5309,16 +5311,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>190.6805289025653</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>339.7502131046251</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>953.6472828615138</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1722.015429253975</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>842.8697743566707</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C16" t="n">
-        <v>673.9335914287639</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D16" t="n">
-        <v>523.8169520164281</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E16" t="n">
-        <v>523.8169520164281</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5463,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V16" t="n">
-        <v>1164.055751909234</v>
+        <v>765.0418208473204</v>
       </c>
       <c r="W16" t="n">
-        <v>1164.055751909234</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="X16" t="n">
-        <v>936.0662010112164</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y16" t="n">
-        <v>936.0662010112164</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,22 +5500,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514085</v>
@@ -5558,7 +5560,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>2649.889045452863</v>
       </c>
       <c r="L18" t="n">
-        <v>627.7391298106763</v>
+        <v>2896.654173359327</v>
       </c>
       <c r="M18" t="n">
-        <v>1396.107276203138</v>
+        <v>3203.974306639288</v>
       </c>
       <c r="N18" t="n">
-        <v>1725.969903867171</v>
+        <v>4008.385884903439</v>
       </c>
       <c r="O18" t="n">
-        <v>2005.509969085868</v>
+        <v>4350.092662819068</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.810590821615</v>
+        <v>4555.115143601278</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>208.7516828383384</v>
+        <v>579.3570368996734</v>
       </c>
       <c r="C19" t="n">
-        <v>208.7516828383384</v>
+        <v>579.3570368996734</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>579.3570368996734</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>431.4439433172803</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G19" t="n">
         <v>208.7516828383384</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>898.7925182488384</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>644.1080300429516</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W19" t="n">
-        <v>354.6908600059909</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X19" t="n">
-        <v>208.7516828383384</v>
+        <v>981.7980808734433</v>
       </c>
       <c r="Y19" t="n">
-        <v>208.7516828383384</v>
+        <v>761.0055017299131</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028564</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5786,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>292.8275092861694</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>539.5926371926334</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M21" t="n">
-        <v>846.9127704725951</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N21" t="n">
-        <v>1651.324348736746</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3865.493026375031</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="C22" t="n">
-        <v>3865.493026375031</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D22" t="n">
-        <v>3865.493026375031</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E22" t="n">
-        <v>3717.579932792637</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>3570.689985294727</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929845</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>4437.14914771935</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>4340.970093724448</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V22" t="n">
-        <v>4086.285605518561</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W22" t="n">
-        <v>4086.285605518561</v>
+        <v>898.5039869983193</v>
       </c>
       <c r="X22" t="n">
-        <v>4086.285605518561</v>
+        <v>784.2147252787242</v>
       </c>
       <c r="Y22" t="n">
-        <v>3865.493026375031</v>
+        <v>563.4221461351941</v>
       </c>
     </row>
     <row r="23">
@@ -5975,19 +5977,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514085</v>
@@ -6014,10 +6016,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>2771.824048372322</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M24" t="n">
-        <v>3079.144181652284</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N24" t="n">
-        <v>3883.555759916434</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O24" t="n">
-        <v>4553.019521219094</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3869.021087329177</v>
+        <v>566.6879222525852</v>
       </c>
       <c r="C25" t="n">
-        <v>3869.021087329177</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D25" t="n">
-        <v>3869.021087329177</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E25" t="n">
-        <v>3721.107993746784</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>3721.107993746784</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746784</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4749.779469576118</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>4525.994054365623</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>4499.451682200965</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>4499.451682200965</v>
+        <v>566.6879222525852</v>
       </c>
       <c r="W25" t="n">
-        <v>4499.451682200965</v>
+        <v>566.6879222525852</v>
       </c>
       <c r="X25" t="n">
-        <v>4271.462131302947</v>
+        <v>566.6879222525852</v>
       </c>
       <c r="Y25" t="n">
-        <v>4050.669552159417</v>
+        <v>566.6879222525852</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6221,55 +6223,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690734</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409607</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748356</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.0874327429</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769785</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.62619637397</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805658</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098442</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J27" t="n">
-        <v>2500.819361250804</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K27" t="n">
-        <v>2649.889045452864</v>
+        <v>2649.889045452863</v>
       </c>
       <c r="L27" t="n">
-        <v>3263.786115209752</v>
+        <v>3262.052667528206</v>
       </c>
       <c r="M27" t="n">
-        <v>3571.106248489714</v>
+        <v>3569.372800808168</v>
       </c>
       <c r="N27" t="n">
-        <v>4289.159124556163</v>
+        <v>3899.2354284722</v>
       </c>
       <c r="O27" t="n">
-        <v>4568.69918977486</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P27" t="n">
-        <v>4773.72167055707</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098068</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021846</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641233</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.77681940949</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681289</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475756</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710802</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3922.133756677159</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C28" t="n">
-        <v>3922.133756677159</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D28" t="n">
-        <v>3922.133756677159</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E28" t="n">
-        <v>3774.220663094766</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>3627.330715596856</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4755.364053706448</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4755.364053706448</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4755.364053706448</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="U28" t="n">
-        <v>4466.235414920006</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="V28" t="n">
-        <v>4211.55092671412</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="W28" t="n">
-        <v>3922.133756677159</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="X28" t="n">
-        <v>3922.133756677159</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y28" t="n">
-        <v>3922.133756677159</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6442,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6476,7 +6478,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899127</v>
@@ -6485,22 +6487,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690735</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409608</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748357</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742901</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769786</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373971</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805659</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.9892362638</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>2525.05892046586</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>2771.824048372324</v>
       </c>
       <c r="M30" t="n">
-        <v>921.5583256030199</v>
+        <v>3540.192194764785</v>
       </c>
       <c r="N30" t="n">
-        <v>1725.969903867171</v>
+        <v>3870.054822428818</v>
       </c>
       <c r="O30" t="n">
-        <v>2005.509969085868</v>
+        <v>4539.518583731478</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>4773.721670557071</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098069</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021847</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641234</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409491</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475757</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710803</v>
       </c>
     </row>
     <row r="31">
@@ -6595,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.9563154684962</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="C31" t="n">
-        <v>392.0201325405893</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
@@ -6646,25 +6648,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U31" t="n">
-        <v>1098.712528333286</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V31" t="n">
-        <v>963.3973594422661</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W31" t="n">
-        <v>963.3973594422661</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="X31" t="n">
-        <v>963.3973594422661</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.6047802987359</v>
+        <v>527.3450129705745</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,40 +6691,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263798</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K33" t="n">
-        <v>2786.879505108311</v>
+        <v>2525.058920465859</v>
       </c>
       <c r="L33" t="n">
-        <v>3177.42741301205</v>
+        <v>2946.774526574669</v>
       </c>
       <c r="M33" t="n">
-        <v>3484.747546292012</v>
+        <v>3254.094659854631</v>
       </c>
       <c r="N33" t="n">
-        <v>4289.159124556162</v>
+        <v>3583.957287518664</v>
       </c>
       <c r="O33" t="n">
-        <v>4568.699189774859</v>
+        <v>4253.421048821323</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.721670557069</v>
+        <v>4773.72167055707</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>468.5954956259884</v>
+        <v>447.0175521403269</v>
       </c>
       <c r="C34" t="n">
-        <v>299.6593126980815</v>
+        <v>278.08136921242</v>
       </c>
       <c r="D34" t="n">
-        <v>299.6593126980815</v>
+        <v>278.08136921242</v>
       </c>
       <c r="E34" t="n">
-        <v>151.7462191156884</v>
+        <v>130.1682756300269</v>
       </c>
       <c r="F34" t="n">
-        <v>151.7462191156884</v>
+        <v>130.1682756300269</v>
       </c>
       <c r="G34" t="n">
-        <v>151.7462191156884</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>151.7462191156884</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6862,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V34" t="n">
-        <v>986.0022165609664</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W34" t="n">
-        <v>696.5850465240057</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="X34" t="n">
-        <v>468.5954956259884</v>
+        <v>447.0175521403269</v>
       </c>
       <c r="Y34" t="n">
-        <v>468.5954956259884</v>
+        <v>447.0175521403269</v>
       </c>
     </row>
     <row r="35">
@@ -6923,16 +6925,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6950,22 +6952,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7011,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M36" t="n">
-        <v>841.863114014129</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N36" t="n">
-        <v>1646.27469227828</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O36" t="n">
-        <v>1925.814757496977</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>565.9270610048577</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C37" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7099,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1469.31368933674</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1269.393679252292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1269.393679252292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U37" t="n">
-        <v>1269.393679252292</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V37" t="n">
-        <v>1014.709191046405</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W37" t="n">
-        <v>1014.709191046405</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X37" t="n">
-        <v>786.7196401483878</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y37" t="n">
-        <v>565.9270610048577</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7168,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7254,25 +7256,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656582</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N39" t="n">
-        <v>1908.095276920732</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O39" t="n">
-        <v>2320.788110039405</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>493.3586382081045</v>
+        <v>644.700260475621</v>
       </c>
       <c r="C40" t="n">
-        <v>394.223678370532</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D40" t="n">
-        <v>244.1070389581962</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>675.0071030383442</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V40" t="n">
-        <v>675.0071030383442</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W40" t="n">
-        <v>675.0071030383442</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X40" t="n">
-        <v>675.0071030383442</v>
+        <v>1047.141304449391</v>
       </c>
       <c r="Y40" t="n">
-        <v>675.0071030383442</v>
+        <v>826.3487253058607</v>
       </c>
     </row>
     <row r="41">
@@ -7388,67 +7390,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7488,22 +7490,22 @@
         <v>2334.498159098441</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>2405.169842307182</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095316</v>
+        <v>2554.239526509242</v>
       </c>
       <c r="L42" t="n">
-        <v>3158.47475800178</v>
+        <v>2801.004654415706</v>
       </c>
       <c r="M42" t="n">
-        <v>3465.794891281741</v>
+        <v>3569.372800808167</v>
       </c>
       <c r="N42" t="n">
-        <v>4270.206469545892</v>
+        <v>3899.2354284722</v>
       </c>
       <c r="O42" t="n">
-        <v>4549.746534764589</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P42" t="n">
         <v>4773.721670557069</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>562.3990000507114</v>
+        <v>754.894602230607</v>
       </c>
       <c r="C43" t="n">
-        <v>562.3990000507114</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D43" t="n">
-        <v>412.2823606383756</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383756</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>898.7925182488384</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V43" t="n">
-        <v>783.1915791942415</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W43" t="n">
-        <v>783.1915791942415</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X43" t="n">
-        <v>783.1915791942415</v>
+        <v>754.894602230607</v>
       </c>
       <c r="Y43" t="n">
-        <v>562.3990000507114</v>
+        <v>754.894602230607</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7637,22 +7639,22 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7673,10 +7675,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>3138.955990222747</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>3446.276123502708</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N45" t="n">
-        <v>3776.138751166741</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O45" t="n">
-        <v>4253.421048821322</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>397.7517393246783</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="C46" t="n">
-        <v>397.7517393246783</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D46" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E46" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F46" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
         <v>247.6350999123426</v>
@@ -7834,22 +7836,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1009.867621687013</v>
+        <v>1002.260014040984</v>
       </c>
       <c r="V46" t="n">
-        <v>755.183133481126</v>
+        <v>747.5755258350974</v>
       </c>
       <c r="W46" t="n">
-        <v>579.400204154918</v>
+        <v>747.5755258350974</v>
       </c>
       <c r="X46" t="n">
-        <v>579.400204154918</v>
+        <v>747.5755258350974</v>
       </c>
       <c r="Y46" t="n">
-        <v>579.400204154918</v>
+        <v>747.5755258350974</v>
       </c>
     </row>
   </sheetData>
@@ -8064,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516227</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8544,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>43.65987261462533</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>52.49733361305233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9176,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>94.13752431970596</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>62.79465928983041</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9404,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9480,19 +9482,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>5.100663089359699</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>253.7371603504738</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,25 +9722,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>285.1031356539335</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>15.83804904622806</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,16 +9959,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>369.0893880493728</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>392.1113620226429</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10197,22 +10199,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>80.50021372615237</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>29.47535963978171</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10428,22 +10430,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>145.2351313103783</v>
+        <v>176.7176547498443</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10598,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627462</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,28 +10667,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>219.9778004203346</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>199.623080587109</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,10 +10843,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,28 +10904,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>134.4977453535108</v>
+        <v>308.1251096272032</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,25 +11138,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>29.47535963978154</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>19.14409596996995</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11388,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>199.7396287231149</v>
+        <v>308.1251096272032</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23416,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>94.03149765572029</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,10 +23427,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23467,7 +23469,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>17.15173198501253</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>87.56751779393707</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,10 +23712,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>55.03466155613731</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>91.44927861215631</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>81.2298699930611</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24132,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>191.0200889436239</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>112.563286286638</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>259.9604039555655</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>144.9016543459268</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.528738289026435</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>204.4136905191024</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>118.1756261217181</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>140.337529169499</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25087,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>133.871896135334</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>56.43540908542345</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,10 +25314,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>80.6577969948418</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>70.40474658093436</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>69.10321085943104</v>
+        <v>68.18883318212582</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25612,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,22 +25788,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>105.5303974912589</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,19 +25842,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>137.6927136597771</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26074,16 +26076,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>214.0160294888209</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>112.4978983036451</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>710981.2454933078</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>710981.2454933077</v>
+        <v>710981.2454933078</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>710981.2454933077</v>
+        <v>710981.2454933078</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>710981.2454933078</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>710981.2454933078</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>710981.2454933078</v>
+        <v>710981.2454933076</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>710981.2454933076</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
   </sheetData>
@@ -26311,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846413</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="E2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="F2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="G2" t="n">
         <v>664749.4015541049</v>
       </c>
-      <c r="F2" t="n">
-        <v>664749.4015541045</v>
-      </c>
-      <c r="G2" t="n">
-        <v>664749.4015541045</v>
-      </c>
       <c r="H2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.401554105</v>
       </c>
       <c r="I2" t="n">
         <v>664749.401554105</v>
       </c>
       <c r="J2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.401554105</v>
       </c>
       <c r="K2" t="n">
         <v>664749.4015541048</v>
       </c>
       <c r="L2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541046</v>
       </c>
       <c r="M2" t="n">
+        <v>664749.4015541045</v>
+      </c>
+      <c r="N2" t="n">
         <v>664749.4015541049</v>
-      </c>
-      <c r="N2" t="n">
-        <v>664749.4015541045</v>
       </c>
       <c r="O2" t="n">
         <v>664749.4015541048</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159207</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159209</v>
@@ -26424,40 +26426,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007524</v>
+        <v>7916.731656007536</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007536</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007482</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007524</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007482</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007482</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="O4" t="n">
+        <v>7916.731656007457</v>
+      </c>
+      <c r="P4" t="n">
         <v>7916.731656007483</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7916.731656007519</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.0780634095</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26491,10 +26493,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26506,7 +26508,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26522,40 +26524,40 @@
         <v>-122858.5016092338</v>
       </c>
       <c r="C6" t="n">
-        <v>467109.3776053106</v>
+        <v>467109.3776053111</v>
       </c>
       <c r="D6" t="n">
-        <v>467109.3776053108</v>
+        <v>467109.3776053109</v>
       </c>
       <c r="E6" t="n">
         <v>39685.30747248456</v>
       </c>
       <c r="F6" t="n">
-        <v>564845.3439493804</v>
+        <v>564845.3439493806</v>
       </c>
       <c r="G6" t="n">
-        <v>564845.3439493804</v>
+        <v>564845.3439493808</v>
       </c>
       <c r="H6" t="n">
-        <v>564845.3439493806</v>
+        <v>564845.3439493809</v>
       </c>
       <c r="I6" t="n">
         <v>564845.3439493809</v>
       </c>
       <c r="J6" t="n">
-        <v>388422.1247567877</v>
+        <v>388422.1247567878</v>
       </c>
       <c r="K6" t="n">
-        <v>564845.3439493807</v>
+        <v>564845.3439493806</v>
       </c>
       <c r="L6" t="n">
-        <v>564845.3439493809</v>
+        <v>564845.3439493806</v>
       </c>
       <c r="M6" t="n">
-        <v>430044.3287155436</v>
+        <v>430044.3287155434</v>
       </c>
       <c r="N6" t="n">
-        <v>564845.3439493804</v>
+        <v>564845.3439493808</v>
       </c>
       <c r="O6" t="n">
         <v>564845.3439493807</v>
@@ -26692,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,31 +26737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26814,7 +26816,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>150.248633850911</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>23.03118778159273</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,10 +27435,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27464,7 +27466,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-1.506350599811412e-12</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>33.71175900607354</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853696</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>221.0530437593209</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>249.6515995278942</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>182.9256134252738</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>56.01837628787186</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>33.34133851231954</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>72.73060773255995</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>176.1894818449538</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28011,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>18.68333655655485</v>
+        <v>80.22647697792365</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
     </row>
     <row r="15">
@@ -29281,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -30469,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-2.106020895186895e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554472</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633806</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473559</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141116</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188921</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396483</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372668</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078616</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644448</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175852</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383808</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678013</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770697</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279168</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873156</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>326.0235748557334</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,16 +35649,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.40751256795902</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>487.1420318003117</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,19 +35886,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
         <v>570.6060255109123</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>343.3952292757303</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>345.1583615309385</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>155.6761016772989</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>586.9317337484866</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>534.3608406099578</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>222.9314639777528</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36679,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>618.347093005397</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>725.3059354206558</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36917,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>390.9245907766187</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>236.5687745713064</v>
       </c>
       <c r="Q30" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37075,7 +37077,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37148,22 +37150,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>394.4928362664027</v>
+        <v>425.9753597058686</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>88.01303278507413</v>
@@ -37318,7 +37320,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.154607095148</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>530.4021774708009</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>406.7164955186337</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37561,10 +37563,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>416.8614475946189</v>
+        <v>590.4888118683114</v>
       </c>
       <c r="P39" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>71.38553859468823</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>226.2375109014947</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>88.01303278507413</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38108,13 +38110,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>482.1033309642231</v>
+        <v>590.4888118683114</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3426097.476523633</v>
+        <v>3419080.461631923</v>
       </c>
     </row>
     <row r="7">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>204.434407769772</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>254.8508294034812</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481162</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -746,19 +746,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554025</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250816</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229327</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491425</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>25.2529242564392</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>4.656611629716229</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>382.8908255841847</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>144.8266450448612</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>218.7963048115085</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>13.15972490571525</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>251.1921650317972</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>144.8086284801606</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3712663515785</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896906</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274073</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1821,10 +1821,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V16" t="n">
-        <v>197.1029817676907</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>53.97176941077494</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2244,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>113.1463691023991</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2478,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>107.2359889779012</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>182.8414065694712</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>17.13387053928689</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>146.185469167092</v>
+        <v>157.2874061841565</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>32.62167232804359</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3246,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>26.97444673954876</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>216.1182517556566</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>99.05798791650201</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.876045741712</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274081</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>61.71642360736897</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>72.2213229097564</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1130.934501327945</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="C2" t="n">
-        <v>761.971984387533</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="D2" t="n">
-        <v>555.4725825998845</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>1140.317774917322</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>729.3318701277142</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>311.3680620259011</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733133</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224085</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642691</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791254</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862888</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.30824683495</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.30824683495</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.30824683495</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1894.539591564836</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X2" t="n">
-        <v>1521.073833303756</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y2" t="n">
-        <v>1130.934501327945</v>
+        <v>1526.106027515566</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170848</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359578</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747065</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4406,55 +4406,55 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204944</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.447464661593</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.063382757265</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417903</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517454</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537798</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152627</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430049</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073965</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196744</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167584</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935841</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.32511120764</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002107</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237153</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.942782082032</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E4" t="n">
         <v>222.942782082032</v>
@@ -4479,61 +4479,61 @@
         <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036449</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600568</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600568</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600568</v>
+        <v>702.6209799070007</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600568</v>
+        <v>702.6209799070007</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600568</v>
+        <v>702.6209799070007</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600568</v>
+        <v>702.6209799070007</v>
       </c>
       <c r="W4" t="n">
-        <v>409.2948950230962</v>
+        <v>702.6209799070007</v>
       </c>
       <c r="X4" t="n">
-        <v>404.5912469122717</v>
+        <v>702.6209799070007</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5912469122717</v>
+        <v>702.6209799070007</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1129.234822142136</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C5" t="n">
-        <v>760.2723052017247</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="D5" t="n">
-        <v>402.0066065949742</v>
+        <v>840.4130481610125</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>454.6247955627683</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2242.069075737452</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1889.300420467338</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1515.834662206258</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y5" t="n">
-        <v>1515.834662206258</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>249.7161456655658</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>249.7161456655658</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>477.7056965635832</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>477.7056965635832</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>249.7161456655658</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>249.7161456655658</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1271.835978902614</v>
+        <v>1194.175505447094</v>
       </c>
       <c r="C8" t="n">
-        <v>1271.835978902614</v>
+        <v>825.2129885066827</v>
       </c>
       <c r="D8" t="n">
-        <v>1271.835978902614</v>
+        <v>466.9472898999322</v>
       </c>
       <c r="E8" t="n">
-        <v>886.0477263043695</v>
+        <v>81.15903730168793</v>
       </c>
       <c r="F8" t="n">
-        <v>475.0618215147619</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>461.1384174533528</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304456</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2048.575150942547</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>2048.575150942547</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1658.435818966735</v>
+        <v>1580.775345511216</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.7922583306645</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>552.4407231609042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>552.4407231609042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>552.4407231609042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>552.4407231609042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>552.4407231609042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>552.4407231609042</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,10 +5068,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5123,22 +5123,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507006</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.678268171039</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>1133.156678913841</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>861.0644906799231</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>633.0749397819058</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,10 +5278,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5299,7 +5299,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5311,19 +5311,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5366,13 +5366,13 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216476</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880509</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247858</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>765.0418208473204</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>475.6246508103599</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,40 +5500,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>2649.889045452863</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>2896.654173359327</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>3203.974306639288</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>4008.385884903439</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>4350.092662819068</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>4555.115143601278</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>579.3570368996734</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>579.3570368996734</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>579.3570368996734</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>431.4439433172803</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.787631771461</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.787631771461</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>981.7980808734433</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>761.0055017299131</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5743,40 +5743,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5785,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,19 +5828,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1470.815640507006</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
         <v>2051.878056918008</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>1187.92115703528</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>898.5039869983193</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>784.2147252787242</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5986,31 +5986,31 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>816.7950850315615</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1453.977845975556</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>566.6879222525852</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C25" t="n">
-        <v>397.7517393246783</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>566.6879222525852</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W25" t="n">
-        <v>566.6879222525852</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X25" t="n">
-        <v>566.6879222525852</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y25" t="n">
-        <v>566.6879222525852</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6253,22 +6253,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2649.889045452863</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>3262.052667528206</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>3569.372800808168</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>3899.2354284722</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6414,22 +6414,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1281.689320534781</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1281.689320534781</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1281.689320534781</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>1281.689320534781</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>1281.689320534781</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.9892362638</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K30" t="n">
-        <v>2525.05892046586</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L30" t="n">
-        <v>2771.824048372324</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M30" t="n">
-        <v>3540.192194764785</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>3870.054822428818</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>4539.518583731478</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.721670557071</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>527.3450129705745</v>
+        <v>675.7175987609741</v>
       </c>
       <c r="C31" t="n">
-        <v>527.3450129705745</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="D31" t="n">
-        <v>527.3450129705745</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705745</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705745</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>675.0071030383442</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W31" t="n">
-        <v>527.3450129705745</v>
+        <v>1085.355614489231</v>
       </c>
       <c r="X31" t="n">
-        <v>527.3450129705745</v>
+        <v>857.3660635912138</v>
       </c>
       <c r="Y31" t="n">
-        <v>527.3450129705745</v>
+        <v>857.3660635912138</v>
       </c>
     </row>
     <row r="32">
@@ -6679,52 +6679,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2525.058920465859</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>2946.774526574669</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3254.094659854631</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>3583.957287518664</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4253.421048821323</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>447.0175521403269</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>278.08136921242</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>278.08136921242</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>130.1682756300269</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>130.1682756300269</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>675.0071030383442</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>675.0071030383442</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>675.0071030383442</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>447.0175521403269</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>447.0175521403269</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,40 +6916,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6964,22 +6964,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7016,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766202</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1321.461721072713</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N36" t="n">
-        <v>1651.324348736746</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O36" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1471.669354659368</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="T37" t="n">
-        <v>1187.92115703528</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U37" t="n">
-        <v>1187.92115703528</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V37" t="n">
-        <v>933.2366688293934</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W37" t="n">
-        <v>714.9354044297402</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X37" t="n">
-        <v>486.9458535317228</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y37" t="n">
-        <v>266.1532743881928</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7168,25 +7168,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.995055864554</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>644.700260475621</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>544.6416868225887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1275.130855347408</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>1275.130855347408</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>1047.141304449391</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>826.3487253058607</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,67 +7390,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2405.169842307182</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>2554.239526509242</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>2801.004654415706</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>3569.372800808167</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N42" t="n">
-        <v>3899.2354284722</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O42" t="n">
-        <v>4568.699189774859</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P42" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>754.894602230607</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C43" t="n">
-        <v>692.5547804049818</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D43" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1044.311772267568</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>754.894602230607</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>754.894602230607</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>754.894602230607</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.995055864554</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N45" t="n">
-        <v>1538.857683528586</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>565.9270610048577</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7839,19 +7839,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1002.260014040984</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>747.5755258350974</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>747.5755258350974</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>747.5755258350974</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>747.5755258350974</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516227</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,25 +8771,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>43.65987261462533</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9014,16 +9014,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>176.7176547498455</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>96.03744927814705</v>
       </c>
       <c r="O18" t="n">
-        <v>62.79465928983041</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,16 +9482,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N21" t="n">
-        <v>253.7371603504738</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>285.1031356539335</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>369.0893880493728</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>29.47535963978171</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>176.7176547498443</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,19 +10667,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>219.9778004203346</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,25 +10907,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>308.1251096272032</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>29.47535963978154</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>308.1251096272032</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23427,10 +23427,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W13" t="n">
-        <v>17.15173198501253</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23670,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V16" t="n">
-        <v>55.03466155613731</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>91.44927861215631</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24132,16 +24132,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>112.563286286638</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,22 +24366,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>144.9016543459268</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>35.74324678262357</v>
       </c>
     </row>
     <row r="26">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24654,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>204.4136905191024</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>140.337529169499</v>
+        <v>129.2355921524345</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>133.871896135334</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>82.98990566424405</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>70.40474658093436</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>68.18883318212582</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>105.5303974912589</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>214.0160294888209</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>710981.2454933078</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>710981.2454933078</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>710981.2454933078</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>710981.2454933078</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>710981.2454933076</v>
+        <v>710981.2454933077</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846413</v>
+        <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846412</v>
       </c>
       <c r="E2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.401554105</v>
       </c>
       <c r="F2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="G2" t="n">
         <v>664749.4015541049</v>
@@ -26337,22 +26337,22 @@
         <v>664749.401554105</v>
       </c>
       <c r="J2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541045</v>
       </c>
       <c r="K2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541046</v>
       </c>
       <c r="L2" t="n">
         <v>664749.4015541046</v>
       </c>
       <c r="M2" t="n">
-        <v>664749.4015541045</v>
+        <v>664749.401554105</v>
       </c>
       <c r="N2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.4015541051</v>
       </c>
       <c r="O2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.401554105</v>
       </c>
       <c r="P2" t="n">
         <v>664749.4015541048</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145449</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159207</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
+        <v>147917.0487159208</v>
+      </c>
+      <c r="D4" t="n">
         <v>147917.0487159209</v>
       </c>
-      <c r="D4" t="n">
-        <v>147917.0487159208</v>
-      </c>
       <c r="E4" t="n">
-        <v>7916.731656007536</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007536</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007482</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007485</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007524</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007482</v>
+        <v>7916.731656007538</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="N4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007457</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.0780634095</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26496,22 +26496,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-122858.5016092338</v>
       </c>
       <c r="C6" t="n">
-        <v>467109.3776053111</v>
+        <v>467109.377605311</v>
       </c>
       <c r="D6" t="n">
         <v>467109.3776053109</v>
       </c>
       <c r="E6" t="n">
-        <v>39685.30747248456</v>
+        <v>38710.71621276311</v>
       </c>
       <c r="F6" t="n">
-        <v>564845.3439493806</v>
+        <v>563870.7526896591</v>
       </c>
       <c r="G6" t="n">
-        <v>564845.3439493808</v>
+        <v>563870.7526896591</v>
       </c>
       <c r="H6" t="n">
-        <v>564845.3439493809</v>
+        <v>563870.7526896592</v>
       </c>
       <c r="I6" t="n">
-        <v>564845.3439493809</v>
+        <v>563870.7526896592</v>
       </c>
       <c r="J6" t="n">
-        <v>388422.1247567878</v>
+        <v>387447.5334970659</v>
       </c>
       <c r="K6" t="n">
-        <v>564845.3439493806</v>
+        <v>563870.7526896588</v>
       </c>
       <c r="L6" t="n">
-        <v>564845.3439493806</v>
+        <v>563870.7526896589</v>
       </c>
       <c r="M6" t="n">
-        <v>430044.3287155434</v>
+        <v>429069.7374558221</v>
       </c>
       <c r="N6" t="n">
-        <v>564845.3439493808</v>
+        <v>563870.7526896594</v>
       </c>
       <c r="O6" t="n">
-        <v>564845.3439493807</v>
+        <v>563870.7526896592</v>
       </c>
       <c r="P6" t="n">
-        <v>564845.3439493807</v>
+        <v>563870.752689659</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26764,22 +26764,22 @@
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26816,7 +26816,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>150.248633850911</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>69.07194336087596</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27466,7 +27466,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.506350599811412e-12</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27542,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853696</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>186.8926146935797</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>221.0530437593209</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>23.98522015752673</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>182.9256134252738</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>33.34133851231954</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>393.7163208359962</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>72.73060773255995</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>80.22647697792365</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -29283,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29532,7 +29532,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -30471,7 +30471,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.106020895186895e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554472</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633806</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473559</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141116</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188921</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396483</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372668</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078616</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644448</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175852</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383808</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678013</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770697</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279168</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137342</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N4" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873156</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>326.0235748557334</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>487.1420318003117</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35974,19 +35974,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>429.2320226761599</v>
       </c>
       <c r="O18" t="n">
-        <v>345.1583615309385</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N21" t="n">
-        <v>586.9317337484866</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
@@ -36360,7 +36360,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>534.3608406099578</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36451,10 +36451,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36676,10 +36676,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>618.347093005397</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36688,13 +36688,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>236.5687745713064</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>425.9753597058686</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
@@ -37162,13 +37162,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>530.4021774708009</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>590.4888118683114</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>71.38553859468823</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>590.4888118683114</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3419080.461631923</v>
+        <v>3424019.724480954</v>
       </c>
     </row>
     <row r="7">
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>254.8508294034812</v>
+        <v>254.8508294034816</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -752,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>25.2529242564392</v>
+        <v>25.25292425643942</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>14.46389722690833</v>
+        <v>14.46389722690856</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>13.15972490571525</v>
+        <v>13.15972490571568</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1584,10 +1584,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V13" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>191.6534898356754</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>182.8414065694712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>157.2874061841565</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>195.8155841663235</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>26.97444673954876</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>203.8435192151915</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T40" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>143.2925104849742</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4318,40 +4318,40 @@
         <v>1140.317774917322</v>
       </c>
       <c r="F2" t="n">
-        <v>729.3318701277142</v>
+        <v>729.3318701277146</v>
       </c>
       <c r="G2" t="n">
-        <v>311.3680620259011</v>
+        <v>311.3680620259015</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,10 +4360,10 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V2" t="n">
         <v>1916.245359491378</v>
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4406,10 +4406,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
         <v>309.190302261463</v>
@@ -4430,22 +4430,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4479,40 +4479,40 @@
         <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
         <v>702.6209799070007</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4637,7 +4637,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
         <v>713.5189870075369</v>
@@ -4716,13 +4716,13 @@
         <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.175505447094</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C8" t="n">
-        <v>825.2129885066827</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D8" t="n">
-        <v>466.9472898999322</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E8" t="n">
-        <v>81.15903730168793</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4849,7 +4849,7 @@
         <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.775345511216</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4950,19 +4950,19 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5044,22 +5044,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5074,16 +5074,16 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5232,7 +5232,7 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
         <v>614.6238123952637</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1305.326886885503</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="17">
@@ -5515,16 +5515,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5740,22 +5740,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5776,7 +5776,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5828,16 +5828,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
         <v>1247.466478653857</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5983,16 +5983,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6214,7 +6214,7 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805466</v>
@@ -6229,7 +6229,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6411,19 +6411,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
         <v>97.21709146028584</v>
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6530,25 +6530,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>233.7852434110091</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K30" t="n">
-        <v>644.6755122555218</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619858</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M30" t="n">
         <v>1198.760773441947</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>675.7175987609741</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>506.7814158330672</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>1085.355614489231</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>857.3660635912138</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>857.3660635912138</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6688,46 +6688,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="35">
@@ -6916,31 +6916,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,31 +6955,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7013,16 +7013,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>901.6749225845919</v>
       </c>
       <c r="M36" t="n">
         <v>1670.043068977053</v>
@@ -7031,7 +7031,7 @@
         <v>1999.905696641086</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P36" t="n">
         <v>2536.440602918915</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1471.669354659368</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1271.749344574921</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T37" t="n">
-        <v>1271.749344574921</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7201,25 +7201,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7335,19 +7335,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7359,7 +7359,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
         <v>1158.436939387592</v>
@@ -7405,7 +7405,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7414,7 +7414,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7493,10 +7493,10 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>901.6749225845919</v>
       </c>
       <c r="M42" t="n">
         <v>1208.995055864553</v>
@@ -7505,7 +7505,7 @@
         <v>1538.857683528586</v>
       </c>
       <c r="O42" t="n">
-        <v>2208.321444831246</v>
+        <v>2208.321444831245</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>324.3840174432676</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C43" t="n">
-        <v>155.4478345153607</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7572,19 +7572,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7605,16 +7605,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W43" t="n">
-        <v>954.8146123150548</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X43" t="n">
-        <v>726.8250614170374</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y43" t="n">
-        <v>506.0324822735073</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229581</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>96.03744927814716</v>
+        <v>96.03744927814685</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10214,7 +10214,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119852</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>52.49733361305277</v>
+        <v>52.49733361305351</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>124.3400780863232</v>
+        <v>124.3400780863237</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V13" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23703,13 +23703,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>29.89407122271382</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24369,13 +24369,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>35.74324678262357</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>129.2355921524345</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>29.89407122271368</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>82.98990566424405</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338579</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T40" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>90.96703739368829</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25845,7 +25845,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>108.8451328388538</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26316,40 +26316,40 @@
         <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846412</v>
       </c>
       <c r="E2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="F2" t="n">
         <v>664749.401554105</v>
-      </c>
-      <c r="F2" t="n">
-        <v>664749.4015541049</v>
       </c>
       <c r="G2" t="n">
         <v>664749.4015541049</v>
       </c>
       <c r="H2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="I2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541051</v>
       </c>
       <c r="J2" t="n">
-        <v>664749.4015541045</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="K2" t="n">
         <v>664749.4015541046</v>
       </c>
       <c r="L2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="M2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541051</v>
       </c>
       <c r="N2" t="n">
-        <v>664749.4015541051</v>
+        <v>664749.4015541056</v>
       </c>
       <c r="O2" t="n">
         <v>664749.401554105</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338369</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007525</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007485</v>
@@ -26435,7 +26435,7 @@
         <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007485</v>
@@ -26444,19 +26444,19 @@
         <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007538</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007486</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007536</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.73165600754</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007486</v>
       </c>
       <c r="P4" t="n">
         <v>7916.731656007484</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26487,22 +26487,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-122858.5016092338</v>
+        <v>-122858.5016092339</v>
       </c>
       <c r="C6" t="n">
+        <v>467109.3776053108</v>
+      </c>
+      <c r="D6" t="n">
         <v>467109.377605311</v>
       </c>
-      <c r="D6" t="n">
-        <v>467109.3776053109</v>
-      </c>
       <c r="E6" t="n">
-        <v>38710.71621276311</v>
+        <v>39587.8483465123</v>
       </c>
       <c r="F6" t="n">
-        <v>563870.7526896591</v>
+        <v>564747.8848234088</v>
       </c>
       <c r="G6" t="n">
-        <v>563870.7526896591</v>
+        <v>564747.8848234087</v>
       </c>
       <c r="H6" t="n">
-        <v>563870.7526896592</v>
+        <v>564747.8848234087</v>
       </c>
       <c r="I6" t="n">
-        <v>563870.7526896592</v>
+        <v>564747.8848234089</v>
       </c>
       <c r="J6" t="n">
-        <v>387447.5334970659</v>
+        <v>388324.6656308155</v>
       </c>
       <c r="K6" t="n">
-        <v>563870.7526896588</v>
+        <v>564747.8848234084</v>
       </c>
       <c r="L6" t="n">
-        <v>563870.7526896589</v>
+        <v>564747.8848234086</v>
       </c>
       <c r="M6" t="n">
-        <v>429069.7374558221</v>
+        <v>429946.869589572</v>
       </c>
       <c r="N6" t="n">
-        <v>563870.7526896594</v>
+        <v>564747.8848234093</v>
       </c>
       <c r="O6" t="n">
-        <v>563870.7526896592</v>
+        <v>564747.8848234088</v>
       </c>
       <c r="P6" t="n">
-        <v>563870.752689659</v>
+        <v>564747.8848234086</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26761,22 +26761,22 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>69.07194336087596</v>
+        <v>69.07194336087551</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>186.8926146935797</v>
+        <v>186.8926146935795</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>152.7829238717195</v>
+        <v>152.7829238717193</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>393.7163208359962</v>
+        <v>393.7163208359958</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -29532,7 +29532,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33657,40 +33657,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,10 +33730,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
@@ -33742,7 +33742,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724845</v>
@@ -33751,10 +33751,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33830,7 +33830,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33842,10 +33842,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
         <v>0.08167695791351813</v>
@@ -33894,40 +33894,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,10 +33967,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
@@ -33979,7 +33979,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
@@ -33988,10 +33988,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34067,7 +34067,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34079,10 +34079,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34131,40 +34131,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,10 +34204,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
@@ -34216,7 +34216,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
@@ -34225,10 +34225,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34304,7 +34304,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34316,10 +34316,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>130.3926104730631</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,7 +36208,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734243</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415663</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>137.9476282330538</v>
+        <v>137.9476282330535</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36919,13 +36919,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
@@ -37393,19 +37393,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
-        <v>334.8610358541609</v>
+        <v>334.8610358541616</v>
       </c>
       <c r="P36" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299105</v>
@@ -37472,7 +37472,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N39" t="n">
         <v>812.5369477415663</v>
@@ -37642,7 +37642,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
         <v>59.82538970349858</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
@@ -37867,19 +37867,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O42" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>331.4334930178478</v>
+        <v>331.4334930178483</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37946,7 +37946,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
